--- a/Model Best Results Record.xlsx
+++ b/Model Best Results Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24706"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melis\Documents\GitHub\GroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cory\Desktop\Classwork\Final Project\GroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C177DE2-347B-4510-80A2-265EEA941F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A61807-F841-4B86-BB06-707C06CAD6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{6C275FEE-6EC3-42A7-97A7-2182124BAA0A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6C275FEE-6EC3-42A7-97A7-2182124BAA0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined Results" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="18">
   <si>
     <t>Dataset</t>
   </si>
@@ -78,14 +78,34 @@
   </si>
   <si>
     <t>SMOTEENN</t>
+  </si>
+  <si>
+    <t>F1 = 0.80 / 0.82</t>
+  </si>
+  <si>
+    <t>F1 = 0.82 /0.82</t>
+  </si>
+  <si>
+    <t>Unscaled</t>
+  </si>
+  <si>
+    <t>F1 = 0.83 / 0.83</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,12 +129,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA3959B-2C30-46C0-8811-DAD31D9C9BA3}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,47 +477,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -495,42 +534,51 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -538,34 +586,34 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -573,6 +621,14 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -870,7 +926,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCE27B2-7D78-4FE4-91C8-C360C29011FD}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,130 +1077,151 @@
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Model Best Results Record.xlsx
+++ b/Model Best Results Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cory\Desktop\Classwork\Final Project\GroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A61807-F841-4B86-BB06-707C06CAD6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B4CF63-C642-4B2C-9012-71E4EB06C88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6C275FEE-6EC3-42A7-97A7-2182124BAA0A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="20">
   <si>
     <t>Dataset</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>F1 = 0.83 / 0.83</t>
+  </si>
+  <si>
+    <t>F1 = 0.97 / 0.58</t>
+  </si>
+  <si>
+    <t>F1 = 0.97 / 0.61</t>
   </si>
 </sst>
 </file>
@@ -459,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA3959B-2C30-46C0-8811-DAD31D9C9BA3}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +478,7 @@
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -504,23 +510,29 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -531,105 +543,38 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Model Best Results Record.xlsx
+++ b/Model Best Results Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cory\Desktop\Classwork\Final Project\GroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melis\Documents\GitHub\GroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B4CF63-C642-4B2C-9012-71E4EB06C88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCBA2DF-78EE-425E-BC70-28BDAB4A4E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6C275FEE-6EC3-42A7-97A7-2182124BAA0A}"/>
+    <workbookView xWindow="1695" yWindow="1965" windowWidth="15375" windowHeight="7965" xr2:uid="{6C275FEE-6EC3-42A7-97A7-2182124BAA0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined Results" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="21">
   <si>
     <t>Dataset</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>F1 = 0.97 / 0.61</t>
+  </si>
+  <si>
+    <t>F1= 0.98/.00</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,6 +567,9 @@
       </c>
       <c r="E6" t="s">
         <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">

--- a/Model Best Results Record.xlsx
+++ b/Model Best Results Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cory\Desktop\Classwork\Final Project\GroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B4CF63-C642-4B2C-9012-71E4EB06C88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6593291D-1971-44B3-8953-57EEE361EFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6C275FEE-6EC3-42A7-97A7-2182124BAA0A}"/>
   </bookViews>
@@ -92,10 +92,10 @@
     <t>F1 = 0.83 / 0.83</t>
   </si>
   <si>
-    <t>F1 = 0.97 / 0.58</t>
-  </si>
-  <si>
-    <t>F1 = 0.97 / 0.61</t>
+    <t>F1 = 0.93 / 0.24</t>
+  </si>
+  <si>
+    <t>F1 = 0.94 / 0.24</t>
   </si>
 </sst>
 </file>

--- a/Model Best Results Record.xlsx
+++ b/Model Best Results Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cory\Desktop\Classwork\Final Project\GroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonm/Desktop/Stroke/GroupProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6593291D-1971-44B3-8953-57EEE361EFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124EDE7F-4439-FC40-9330-39A6DBD3B94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6C275FEE-6EC3-42A7-97A7-2182124BAA0A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{6C275FEE-6EC3-42A7-97A7-2182124BAA0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined Results" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="22">
   <si>
     <t>Dataset</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>F1 = 0.94 / 0.24</t>
+  </si>
+  <si>
+    <t>F1 = 0.84 / 0.85</t>
+  </si>
+  <si>
+    <t>F1 = 0.82/ 0.21</t>
   </si>
 </sst>
 </file>
@@ -468,21 +474,21 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -518,8 +524,11 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -529,8 +538,11 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -540,8 +552,11 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -551,8 +566,11 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -565,8 +583,11 @@
       <c r="E6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -575,6 +596,9 @@
       </c>
       <c r="E7" t="s">
         <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -590,20 +614,20 @@
       <selection activeCell="F1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -614,7 +638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -625,7 +649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -633,7 +657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -641,7 +665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -649,7 +673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -660,7 +684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -668,7 +692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -676,7 +700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -684,7 +708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -695,7 +719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -703,7 +727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -711,7 +735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -732,20 +756,20 @@
       <selection activeCell="E1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -756,7 +780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -767,7 +791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -775,7 +799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -783,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -791,7 +815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -802,7 +826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -810,7 +834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -818,7 +842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -826,7 +850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -837,7 +861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -845,7 +869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -853,7 +877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -874,20 +898,20 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -898,7 +922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -909,7 +933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -917,7 +941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -925,7 +949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -933,7 +957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -944,7 +968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -952,7 +976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -960,7 +984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -968,7 +992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -979,7 +1003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -987,7 +1011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -995,7 +1019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -1016,18 +1040,18 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1044,7 +1068,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1055,7 +1079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -1063,7 +1087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -1071,7 +1095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1079,7 +1103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -1087,7 +1111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -1095,7 +1119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1106,7 +1130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1114,7 +1138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1122,7 +1146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -1130,7 +1154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1141,7 +1165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -1149,7 +1173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -1157,7 +1181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>10</v>
       </c>

--- a/Model Best Results Record.xlsx
+++ b/Model Best Results Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonm/Desktop/Stroke/GroupProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melis\Documents\GitHub\GroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124EDE7F-4439-FC40-9330-39A6DBD3B94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C177DE2-347B-4510-80A2-265EEA941F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{6C275FEE-6EC3-42A7-97A7-2182124BAA0A}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{6C275FEE-6EC3-42A7-97A7-2182124BAA0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined Results" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="14">
   <si>
     <t>Dataset</t>
   </si>
@@ -78,46 +78,14 @@
   </si>
   <si>
     <t>SMOTEENN</t>
-  </si>
-  <si>
-    <t>F1 = 0.80 / 0.82</t>
-  </si>
-  <si>
-    <t>F1 = 0.82 /0.82</t>
-  </si>
-  <si>
-    <t>Unscaled</t>
-  </si>
-  <si>
-    <t>F1 = 0.83 / 0.83</t>
-  </si>
-  <si>
-    <t>F1 = 0.93 / 0.24</t>
-  </si>
-  <si>
-    <t>F1 = 0.94 / 0.24</t>
-  </si>
-  <si>
-    <t>F1 = 0.84 / 0.85</t>
-  </si>
-  <si>
-    <t>F1 = 0.82/ 0.21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -133,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -141,22 +109,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,134 +429,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA3959B-2C30-46C0-8811-DAD31D9C9BA3}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -614,20 +589,20 @@
       <selection activeCell="F1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -638,7 +613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -649,7 +624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -657,7 +632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -665,7 +640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -673,7 +648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -684,7 +659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -692,7 +667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -700,7 +675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -708,7 +683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -719,7 +694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -727,7 +702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -735,7 +710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -756,20 +731,20 @@
       <selection activeCell="E1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -780,7 +755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -791,7 +766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -799,7 +774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -807,7 +782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -815,7 +790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -826,7 +801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -834,7 +809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -842,7 +817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -850,7 +825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -861,7 +836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -869,7 +844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -877,7 +852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -895,23 +870,23 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -922,7 +897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -933,7 +908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -941,7 +916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -949,7 +924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -957,7 +932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -968,7 +943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -976,7 +951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -984,7 +959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -992,7 +967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1003,7 +978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -1011,7 +986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1019,7 +994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -1034,163 +1009,142 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCE27B2-7D78-4FE4-91C8-C360C29011FD}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Model Best Results Record.xlsx
+++ b/Model Best Results Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melis\Documents\GitHub\GroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonm/Desktop/Stroke/GroupProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C177DE2-347B-4510-80A2-265EEA941F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124EDE7F-4439-FC40-9330-39A6DBD3B94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{6C275FEE-6EC3-42A7-97A7-2182124BAA0A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{6C275FEE-6EC3-42A7-97A7-2182124BAA0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined Results" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="22">
   <si>
     <t>Dataset</t>
   </si>
@@ -78,14 +78,46 @@
   </si>
   <si>
     <t>SMOTEENN</t>
+  </si>
+  <si>
+    <t>F1 = 0.80 / 0.82</t>
+  </si>
+  <si>
+    <t>F1 = 0.82 /0.82</t>
+  </si>
+  <si>
+    <t>Unscaled</t>
+  </si>
+  <si>
+    <t>F1 = 0.83 / 0.83</t>
+  </si>
+  <si>
+    <t>F1 = 0.93 / 0.24</t>
+  </si>
+  <si>
+    <t>F1 = 0.94 / 0.24</t>
+  </si>
+  <si>
+    <t>F1 = 0.84 / 0.85</t>
+  </si>
+  <si>
+    <t>F1 = 0.82/ 0.21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,12 +141,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,151 +471,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA3959B-2C30-46C0-8811-DAD31D9C9BA3}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -589,20 +614,20 @@
       <selection activeCell="F1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -613,7 +638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -624,7 +649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -632,7 +657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -640,7 +665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -648,7 +673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -659,7 +684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -667,7 +692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -675,7 +700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -683,7 +708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -694,7 +719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -702,7 +727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -710,7 +735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -731,20 +756,20 @@
       <selection activeCell="E1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -755,7 +780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -766,7 +791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -774,7 +799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -782,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -790,7 +815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -801,7 +826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -809,7 +834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -817,7 +842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -825,7 +850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -836,7 +861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -844,7 +869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -852,7 +877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -870,23 +895,23 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -897,7 +922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -908,7 +933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -916,7 +941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -924,7 +949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -932,7 +957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -943,7 +968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -951,7 +976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -959,7 +984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -967,7 +992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -978,7 +1003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -986,7 +1011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -994,7 +1019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -1009,142 +1034,163 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCE27B2-7D78-4FE4-91C8-C360C29011FD}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Model Best Results Record.xlsx
+++ b/Model Best Results Record.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melis\Documents\GitHub\GroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melis\Documents\GitHub\GroupProject\GroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCBA2DF-78EE-425E-BC70-28BDAB4A4E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12935B39-AA45-40BD-9D4B-48C60D4C8EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="1965" windowWidth="15375" windowHeight="7965" xr2:uid="{6C275FEE-6EC3-42A7-97A7-2182124BAA0A}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C275FEE-6EC3-42A7-97A7-2182124BAA0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined Results" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="37">
   <si>
     <t>Dataset</t>
   </si>
@@ -99,13 +99,61 @@
   </si>
   <si>
     <t>F1= 0.98/.00</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Balanced</t>
+  </si>
+  <si>
+    <t>.50 &amp; 0.0</t>
+  </si>
+  <si>
+    <t>1.0 &amp; 0.0</t>
+  </si>
+  <si>
+    <t>0.67 &amp; 0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balanced </t>
+  </si>
+  <si>
+    <t>Scaled</t>
+  </si>
+  <si>
+    <t>.67 &amp; 0.0</t>
+  </si>
+  <si>
+    <t>.96 &amp; 0.0</t>
+  </si>
+  <si>
+    <t>.98 &amp; 0.0</t>
+  </si>
+  <si>
+    <t>0.98 &amp; 0.0</t>
+  </si>
+  <si>
+    <t>F1 = 0.67 / 0.0</t>
+  </si>
+  <si>
+    <t>F1 = 0.98 / 0.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +169,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -130,7 +185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -147,13 +202,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,7 +538,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,6 +585,9 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
@@ -528,6 +598,9 @@
       </c>
       <c r="C3" t="s">
         <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -540,6 +613,9 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
@@ -551,6 +627,9 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
@@ -565,6 +644,9 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
       <c r="E6" t="s">
         <v>19</v>
       </c>
@@ -578,6 +660,9 @@
       </c>
       <c r="C7" t="s">
         <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -1016,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCE27B2-7D78-4FE4-91C8-C360C29011FD}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,15 +1119,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1050,74 +1129,167 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>0.79759999999999998</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>0.79759999999999998</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>0.84519999999999995</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>0.95722700000000005</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>0.95652199999999998</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>0.95652099999999995</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1125,50 +1297,19 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>0.95652099999999995</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Model Best Results Record.xlsx
+++ b/Model Best Results Record.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melis\Documents\GitHub\GroupProject\GroupProject\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12935B39-AA45-40BD-9D4B-48C60D4C8EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C275FEE-6EC3-42A7-97A7-2182124BAA0A}"/>
+    <workbookView windowWidth="19500" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="Combined Results" sheetId="1" r:id="rId1"/>
@@ -19,24 +13,12 @@
     <sheet name="Logistic Regression" sheetId="2" r:id="rId4"/>
     <sheet name="Neural Network" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>Dataset</t>
   </si>
@@ -47,60 +29,156 @@
     <t>Features</t>
   </si>
   <si>
+    <t>Neural Network</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
     <t>Logistic Regression</t>
   </si>
   <si>
-    <t>Neural Network</t>
-  </si>
-  <si>
     <t>Decision Tree</t>
   </si>
   <si>
-    <t>Random Forest</t>
+    <t>Support Vector Machine (SVM)</t>
+  </si>
+  <si>
+    <t>Boostrap Aggregation (Bagging)</t>
+  </si>
+  <si>
+    <t>Adaptative Boosting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gradient Boosting </t>
   </si>
   <si>
     <t>Actual</t>
   </si>
   <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>F1 = 0.67 / 0.0</t>
+  </si>
+  <si>
+    <t>F1 = 0.80 / 0.82</t>
+  </si>
+  <si>
+    <t>F1 = 0.76 / 0.74</t>
+  </si>
+  <si>
+    <t>F1 = 0.80 / 0.81</t>
+  </si>
+  <si>
+    <t>F1 = 0.83 / 0.84</t>
+  </si>
+  <si>
+    <t>F1 = 0.74 / 0.73</t>
+  </si>
+  <si>
+    <t>F1 = 0.86 / 0.86</t>
+  </si>
+  <si>
+    <t>Med Only</t>
+  </si>
+  <si>
+    <t>F1 = 0.82 /0.82</t>
+  </si>
+  <si>
+    <t>F1 = 0.78/ 0.74</t>
+  </si>
+  <si>
+    <t>F1 = 0.81 / 0.83</t>
+  </si>
+  <si>
+    <t>F1 = 0.74 / 0.72</t>
+  </si>
+  <si>
+    <t>F1 = 0.78/ 0.77</t>
+  </si>
+  <si>
+    <t>Unscaled</t>
+  </si>
+  <si>
+    <t>F1 = 0.73 / 0.70</t>
+  </si>
+  <si>
+    <t>F1 = 0.81/ 0.83</t>
+  </si>
+  <si>
+    <t>F1 = 0.79 / 0.80</t>
+  </si>
+  <si>
+    <t>F1 = 0.83 / 0.81</t>
+  </si>
+  <si>
+    <t>F1 = 0.83 / 0.83</t>
+  </si>
+  <si>
+    <t>F1 = 0.76 / 0.71</t>
+  </si>
+  <si>
+    <t>F1 = 0.82/ 0.82</t>
+  </si>
+  <si>
+    <t>F1 = 0.80 / 0.79</t>
+  </si>
+  <si>
+    <t>SMOTEENN</t>
+  </si>
+  <si>
+    <t>F1 = 0.98 / 0.0</t>
+  </si>
+  <si>
+    <t>F1 = 0.97 / 0.61</t>
+  </si>
+  <si>
+    <t>F1= 0.98/.00</t>
+  </si>
+  <si>
+    <t>F1 = 0.93 / 0.21</t>
+  </si>
+  <si>
+    <t>F1 = 0.82 / 0.21</t>
+  </si>
+  <si>
+    <t>F1 = 0.85 / 0.16</t>
+  </si>
+  <si>
+    <t>F1 = 0.91 / 0.28</t>
+  </si>
+  <si>
+    <t>F1 = 0.94 / 0.20</t>
+  </si>
+  <si>
+    <t>F1 = 0.97 / 0.58</t>
+  </si>
+  <si>
+    <t>F1 = 0.93 / 0.22</t>
+  </si>
+  <si>
+    <t>F1 = 0.81 / 0.21</t>
+  </si>
+  <si>
+    <t>F1 = 0.84/ 0.19</t>
+  </si>
+  <si>
+    <t>F1 = 0.88 / 0.24</t>
+  </si>
+  <si>
+    <t>F1 = 0.94 / 0.26</t>
+  </si>
+  <si>
     <t>Min-Max</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>Med Only</t>
-  </si>
-  <si>
     <t>RandomOverSampled</t>
   </si>
   <si>
-    <t>SMOTEENN</t>
-  </si>
-  <si>
-    <t>F1 = 0.80 / 0.82</t>
-  </si>
-  <si>
-    <t>F1 = 0.82 /0.82</t>
-  </si>
-  <si>
-    <t>Unscaled</t>
-  </si>
-  <si>
-    <t>F1 = 0.83 / 0.83</t>
-  </si>
-  <si>
-    <t>F1 = 0.97 / 0.58</t>
-  </si>
-  <si>
-    <t>F1 = 0.97 / 0.61</t>
-  </si>
-  <si>
-    <t>F1= 0.98/.00</t>
-  </si>
-  <si>
     <t>Precision</t>
   </si>
   <si>
@@ -141,24 +219,24 @@
   </si>
   <si>
     <t>0.98 &amp; 0.0</t>
-  </si>
-  <si>
-    <t>F1 = 0.67 / 0.0</t>
-  </si>
-  <si>
-    <t>F1 = 0.98 / 0.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,26 +244,363 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -198,7 +613,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -206,33 +621,319 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -281,7 +982,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -314,26 +1015,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -366,23 +1050,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -524,35 +1191,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA3959B-2C30-46C0-8811-DAD31D9C9BA3}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.2890625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="15.2890625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="14.4296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,138 +1229,242 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7943C97F-AA22-4E6F-8D3A-6D1D64B39DE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="D1:F1048576"/>
+      <selection activeCell="F1" sqref="D$1:F$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.2890625" customWidth="1"/>
+    <col min="4" max="4" width="14.4296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -705,138 +1475,140 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EC91A6-5116-4A49-8B09-9C89D05CBFF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="D1:E1048576"/>
+      <selection activeCell="E1" sqref="D$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.859375" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -847,138 +1619,140 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63EDCCF-2E50-49E5-AFCB-EC62936C24F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.859375" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -989,147 +1763,149 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCE27B2-7D78-4FE4-91C8-C360C29011FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.2890625" customWidth="1"/>
+    <col min="4" max="4" width="15.2890625" customWidth="1"/>
+    <col min="5" max="5" width="14.4296875" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.8" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1140,180 +1916,181 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E3">
-        <v>0.79759999999999998</v>
+        <v>0.7976</v>
       </c>
       <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4">
+        <v>0.7976</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5">
+        <v>0.8452</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6">
+        <v>0.8571</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4">
-        <v>0.79759999999999998</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7">
+        <v>0.957227</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>0.84519999999999995</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>0.85709999999999997</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7">
-        <v>0.95722700000000005</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E8">
-        <v>0.95652199999999998</v>
+        <v>0.956522</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E9">
-        <v>0.95652099999999995</v>
+        <v>0.956521</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E10">
-        <v>0.95652099999999995</v>
+        <v>0.956521</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>